--- a/TestData/T2329_TMTC0002479_VerifyTheRoles1.xlsx
+++ b/TestData/T2329_TMTC0002479_VerifyTheRoles1.xlsx
@@ -37,9 +37,6 @@
     <t>StdUser</t>
   </si>
   <si>
-    <t>Emre Abale</t>
-  </si>
-  <si>
     <t>TeamMember</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Katya Leonov</t>
+  </si>
+  <si>
+    <t>Rob Oudman</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,29 +400,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T2329_TMTC0002479_VerifyTheRoles1.xlsx
+++ b/TestData/T2329_TMTC0002479_VerifyTheRoles1.xlsx
@@ -37,6 +37,9 @@
     <t>StdUser</t>
   </si>
   <si>
+    <t>Emre Abale</t>
+  </si>
+  <si>
     <t>TeamMember</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
   </si>
   <si>
     <t>Katya Leonov</t>
-  </si>
-  <si>
-    <t>Rob Oudman</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,29 +400,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
